--- a/GameDesign/HMcsv설명/CollectTable.xlsx
+++ b/GameDesign/HMcsv설명/CollectTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\용사관리사\기획\테이블\테이블\csv1설명\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive\바탕 화면\github\Heros-Manager\GameDesign\HMcsv설명\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1BC4DF-22FA-4E51-8562-8036E5DB38DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97551DEF-1D04-4056-A1B8-862670A83425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1485,10 +1485,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1791,7 +1787,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
